--- a/Honeymoon_Locations_with_Coordinates.xlsx
+++ b/Honeymoon_Locations_with_Coordinates.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>액티비티</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>액티비티</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>액티비티</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -986,14 +986,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EB%82%98%EB%AF%B8%EB%B9%84%EC%95%84+%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.5805256,14.9642828,9.05z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.8931308,15.9949915,15.86z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-23.5805256</v>
+        <v>-23.8931308</v>
       </c>
       <c r="G19" t="n">
-        <v>14.9642828</v>
+        <v>15.9949915</v>
       </c>
     </row>
     <row r="20">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>포인트</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">

--- a/Honeymoon_Locations_with_Coordinates.xlsx
+++ b/Honeymoon_Locations_with_Coordinates.xlsx
@@ -831,24 +831,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>경유</t>
+          <t>공항</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>아루샤</t>
+          <t>Arusha Airport</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%ED%83%84%EC%9E%90%EB%8B%88%EC%95%84+%EC%95%84%EB%A3%A8%EC%83%A4/@-3.38176,36.7018778,11.64z/data=!4m6!3m5!1s0x18371c88f2387383:0xbc1907f7ec497152!8m2!3d-3.3869254!4d36.6829927!16zL20vMDFfZnB4?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Arusha+Airport/@-3.368027,36.6223203,17z/data=!3m1!4b1!4m6!3m5!1s0x18371d42af8c8f1f:0x8971e2723167dac2!8m2!3d-3.368027!4d36.6248952!16zL20vMGJwOTBu?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-3.38176</v>
+        <v>-3.368027</v>
       </c>
       <c r="G14" t="n">
-        <v>36.7018778</v>
+        <v>36.6223203</v>
       </c>
     </row>
     <row r="15">

--- a/Honeymoon_Locations_with_Coordinates.xlsx
+++ b/Honeymoon_Locations_with_Coordinates.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,7 +943,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45634</v>
+        <v>45633</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -952,19 +952,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>호세아 쿠타코 국제공항</t>
+          <t>O.R. 탐보 국제공항</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%ED%98%B8%EC%84%B8%EC%95%84+%EC%BF%A0%ED%83%80%EC%BD%94+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@-22.4870895,17.4605708,17z/data=!3m1!4b1!4m6!3m5!1s0x1c0badf2ca7a7217:0x1f24b8f61198d350!8m2!3d-22.4870895!4d17.4631457!16zL20vMDd6a2Mx?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/O.R.+%ED%83%90%EB%B3%B4+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@-26.1393913,28.24422,17z/data=!3m1!4b1!4m6!3m5!1s0x1e95143805a229c3:0xb3bf1c40792821d6!8m2!3d-26.1393913!4d28.2467949!16zL20vMHFuMnY?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-22.4870895</v>
+        <v>-26.1393913</v>
       </c>
       <c r="G18" t="n">
-        <v>17.4605708</v>
+        <v>28.24422</v>
       </c>
     </row>
     <row r="19">
@@ -976,24 +976,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>경유</t>
+          <t>공항</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>솔리테어</t>
+          <t>호세아 쿠타코 국제공항</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.8931308,15.9949915,15.86z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%ED%98%B8%EC%84%B8%EC%95%84+%EC%BF%A0%ED%83%80%EC%BD%94+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@-22.4870895,17.4605708,17z/data=!3m1!4b1!4m6!3m5!1s0x1c0badf2ca7a7217:0x1f24b8f61198d350!8m2!3d-22.4870895!4d17.4631457!16zL20vMDd6a2Mx?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-23.8931308</v>
+        <v>-22.4870895</v>
       </c>
       <c r="G19" t="n">
-        <v>15.9949915</v>
+        <v>17.4605708</v>
       </c>
     </row>
     <row r="20">
@@ -1005,24 +1005,24 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>숙박</t>
+          <t>경유</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>시즈리엠 캠프사이트 - NWR</t>
+          <t>솔리테어</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.8931308,15.9949915,15.86z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-24.4500775</v>
+        <v>-23.8931308</v>
       </c>
       <c r="G20" t="n">
-        <v>15.7506268</v>
+        <v>15.9949915</v>
       </c>
     </row>
     <row r="21">
@@ -1030,28 +1030,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45635</v>
+        <v>45634</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>관광지</t>
+          <t>숙박</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dune 45 Viewpoint</t>
+          <t>시즈리엠 캠프사이트 - NWR</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Dune+45+Viewpoint/@-24.6612727,15.4671599,12z/data=!4m5!3m4!1s0x1c7273be022ee5d1:0x1778f6ac200c8bdd!8m2!3d-24.7310652!4d15.4716468?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-24.6612727</v>
+        <v>-24.4500775</v>
       </c>
       <c r="G21" t="n">
-        <v>15.4671599</v>
+        <v>15.7506268</v>
       </c>
     </row>
     <row r="22">
@@ -1068,19 +1068,19 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>소서스블레이</t>
+          <t>Dune 45 Viewpoint</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%86%8C%EC%84%9C%EC%8A%A4%EB%B8%94%EB%A0%88%EC%9D%B4/@-24.7299883,15.3195806,17z/data=!3m1!4b1!4m6!3m5!1s0x1c720c36bf4379af:0xc1101aae1ad9c253!8m2!3d-24.7299883!4d15.3221555!16s%2Fg%2F1wf4qtjb?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Dune+45+Viewpoint/@-24.6612727,15.4671599,12z/data=!4m5!3m4!1s0x1c7273be022ee5d1:0x1778f6ac200c8bdd!8m2!3d-24.7310652!4d15.4716468?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>-24.7299883</v>
+        <v>-24.6612727</v>
       </c>
       <c r="G22" t="n">
-        <v>15.3195806</v>
+        <v>15.4671599</v>
       </c>
     </row>
     <row r="23">
@@ -1097,19 +1097,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>데드블레이</t>
+          <t>소서스블레이</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EB%8D%B0%EB%93%9C%EB%B8%8C%EB%A0%88%EC%9D%B4/@-24.7592732,15.2923894,17z/data=!4m6!3m5!1s0x1c720eb85269ca25:0x91e505d54330767b!8m2!3d-24.7592732!4d15.2923894!16s%2Fm%2F03wbkkh?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%86%8C%EC%84%9C%EC%8A%A4%EB%B8%94%EB%A0%88%EC%9D%B4/@-24.7299883,15.3195806,17z/data=!3m1!4b1!4m6!3m5!1s0x1c720c36bf4379af:0xc1101aae1ad9c253!8m2!3d-24.7299883!4d15.3221555!16s%2Fg%2F1wf4qtjb?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>-24.7592732</v>
+        <v>-24.7299883</v>
       </c>
       <c r="G23" t="n">
-        <v>15.2923894</v>
+        <v>15.3195806</v>
       </c>
     </row>
     <row r="24">
@@ -1121,24 +1121,24 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>경유</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>시즈리엠 캠프사이트 - NWR</t>
+          <t>데드블레이</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EB%8D%B0%EB%93%9C%EB%B8%8C%EB%A0%88%EC%9D%B4/@-24.7592732,15.2923894,17z/data=!4m6!3m5!1s0x1c720eb85269ca25:0x91e505d54330767b!8m2!3d-24.7592732!4d15.2923894!16s%2Fm%2F03wbkkh?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>-24.4500775</v>
+        <v>-24.7592732</v>
       </c>
       <c r="G24" t="n">
-        <v>15.7506268</v>
+        <v>15.2923894</v>
       </c>
     </row>
     <row r="25">
@@ -1150,24 +1150,24 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>관광지</t>
+          <t>경유</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sesriem Canyon</t>
+          <t>시즈리엠 캠프사이트 - NWR</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Sesriem+Canyon/@-24.516666,15.756367,15z/data=!3m1!4b1!4m6!3m5!1s0x1c7261e9b75fbdbf:0x8d47b64bc2f33356!8m2!3d-24.5166667!4d15.7666667!16s%2Fg%2F1tdssvgf?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>-24.516666</v>
+        <v>-24.4500775</v>
       </c>
       <c r="G25" t="n">
-        <v>15.756367</v>
+        <v>15.7506268</v>
       </c>
     </row>
     <row r="26">
@@ -1184,19 +1184,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Elim Dune</t>
+          <t>Sesriem Canyon</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Elim+Dune/@-24.4516649,15.7669456,17z/data=!3m1!4b1!4m6!3m5!1s0x1c72601c924f5fc5:0x1588060ad0583e78!8m2!3d-24.4516649!4d15.7695205!16s%2Fg%2F1tfh6xxj?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Sesriem+Canyon/@-24.516666,15.756367,15z/data=!3m1!4b1!4m6!3m5!1s0x1c7261e9b75fbdbf:0x8d47b64bc2f33356!8m2!3d-24.5166667!4d15.7666667!16s%2Fg%2F1tdssvgf?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>-24.4516649</v>
+        <v>-24.516666</v>
       </c>
       <c r="G26" t="n">
-        <v>15.7669456</v>
+        <v>15.756367</v>
       </c>
     </row>
     <row r="27">
@@ -1208,24 +1208,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>숙박</t>
+          <t>관광지</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>시즈리엠 캠프사이트 - NWR</t>
+          <t>Elim Dune</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Elim+Dune/@-24.4516649,15.7669456,17z/data=!3m1!4b1!4m6!3m5!1s0x1c72601c924f5fc5:0x1588060ad0583e78!8m2!3d-24.4516649!4d15.7695205!16s%2Fg%2F1tfh6xxj?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>-24.4500775</v>
+        <v>-24.4516649</v>
       </c>
       <c r="G27" t="n">
-        <v>15.7506268</v>
+        <v>15.7669456</v>
       </c>
     </row>
     <row r="28">
@@ -1233,28 +1233,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>경유</t>
+          <t>숙박</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>솔리테어</t>
+          <t>시즈리엠 캠프사이트 - NWR</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.8931308,15.9949915,15.86z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%8B%9C%EC%A6%88%EB%A6%AC%EC%97%A0+%EC%BA%A0%ED%94%84%EC%82%AC%EC%9D%B4%ED%8A%B8+-+NWR/@-24.4500775,15.7506268,12z/data=!4m9!3m8!1s0x1c728a898f99a62b:0x2e1eb267fbdbc249!5m2!4m1!1i2!8m2!3d-24.4862708!4d15.7990914!16s%2Fg%2F11cn0qm_4c?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>-23.8931308</v>
+        <v>-24.4500775</v>
       </c>
       <c r="G28" t="n">
-        <v>15.9949915</v>
+        <v>15.7506268</v>
       </c>
     </row>
     <row r="29">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>빈트후크</t>
+          <t>솔리테어</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EB%82%98%EB%AF%B8%EB%B9%84%EC%95%84+%EB%B9%88%ED%8A%B8%ED%9B%84%ED%81%AC/@-22.563751,17.0210266,13z/data=!3m1!4b1!4m6!3m5!1s0x1c0b1b5cb30c01ed:0xe4b84940cc445d3b!8m2!3d-22.5649344!4d17.0842147!16zL20vMGZ0cTc?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EC%86%94%EB%A6%AC%ED%85%8C%EC%96%B4/@-23.8931308,15.9949915,15.86z/data=!4m6!3m5!1s0x1c731a93fc9fae0d:0xc238afe9f76ca6f7!8m2!3d-23.8933454!4d16.0045091!16zL20vMGdidHR2?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>-22.563751</v>
+        <v>-23.8931308</v>
       </c>
       <c r="G29" t="n">
-        <v>17.0210266</v>
+        <v>15.9949915</v>
       </c>
     </row>
     <row r="30">
@@ -1295,24 +1295,24 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>숙박</t>
+          <t>경유</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hilton Garden Inn Windhoek</t>
+          <t>빈트후크</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Hilton+Garden+Inn+Windhoek/@-22.569885,17.0830968,17z/data=!3m1!4b1!4m9!3m8!1s0x1c0b1b6b8586b239:0xf1a0bbc930def090!5m2!4m1!1i2!8m2!3d-22.569885!4d17.0856717!16s%2Fg%2F11vwm83dz3?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%EB%82%98%EB%AF%B8%EB%B9%84%EC%95%84+%EB%B9%88%ED%8A%B8%ED%9B%84%ED%81%AC/@-22.563751,17.0210266,13z/data=!3m1!4b1!4m6!3m5!1s0x1c0b1b5cb30c01ed:0xe4b84940cc445d3b!8m2!3d-22.5649344!4d17.0842147!16zL20vMGZ0cTc?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>-22.569885</v>
+        <v>-22.563751</v>
       </c>
       <c r="G30" t="n">
-        <v>17.0830968</v>
+        <v>17.0210266</v>
       </c>
     </row>
     <row r="31">
@@ -1320,28 +1320,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>공항</t>
+          <t>숙박</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>호세아 쿠타코 국제공항</t>
+          <t>Hilton Garden Inn Windhoek</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%ED%98%B8%EC%84%B8%EC%95%84+%EC%BF%A0%ED%83%80%EC%BD%94+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@-22.4870895,17.4605708,17z/data=!3m1!4b1!4m6!3m5!1s0x1c0badf2ca7a7217:0x1f24b8f61198d350!8m2!3d-22.4870895!4d17.4631457!16zL20vMDd6a2Mx?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/Hilton+Garden+Inn+Windhoek/@-22.569885,17.0830968,17z/data=!3m1!4b1!4m9!3m8!1s0x1c0b1b6b8586b239:0xf1a0bbc930def090!5m2!4m1!1i2!8m2!3d-22.569885!4d17.0856717!16s%2Fg%2F11vwm83dz3?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>-22.4870895</v>
+        <v>-22.569885</v>
       </c>
       <c r="G31" t="n">
-        <v>17.4605708</v>
+        <v>17.0830968</v>
       </c>
     </row>
     <row r="32">
@@ -1358,19 +1358,19 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>아디스아바바 볼레 국제공항</t>
+          <t>호세아 쿠타코 국제공항</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/%EC%95%84%EB%94%94%EC%8A%A4%EC%95%84%EB%B0%94%EB%B0%94+%EB%B3%BC%EB%A0%88+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@8.9837932,38.7937261,17z/data=!3m1!4b1!4m6!3m5!1s0x164b858fbf50bd97:0x93a0799b20ab0276!8m2!3d8.9837879!4d38.7963064!16zL20vMDQ3OTc4?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+          <t>https://www.google.com/maps/place/%ED%98%B8%EC%84%B8%EC%95%84+%EC%BF%A0%ED%83%80%EC%BD%94+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@-22.4870895,17.4605708,17z/data=!3m1!4b1!4m6!3m5!1s0x1c0badf2ca7a7217:0x1f24b8f61198d350!8m2!3d-22.4870895!4d17.4631457!16zL20vMDd6a2Mx?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>8.983793199999999</v>
+        <v>-22.4870895</v>
       </c>
       <c r="G32" t="n">
-        <v>38.7937261</v>
+        <v>17.4605708</v>
       </c>
     </row>
     <row r="33">
@@ -1378,27 +1378,56 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>공항</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>아디스아바바 볼레 국제공항</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/%EC%95%84%EB%94%94%EC%8A%A4%EC%95%84%EB%B0%94%EB%B0%94+%EB%B3%BC%EB%A0%88+%EA%B5%AD%EC%A0%9C%EA%B3%B5%ED%95%AD/@8.9837932,38.7937261,17z/data=!3m1!4b1!4m6!3m5!1s0x164b858fbf50bd97:0x93a0799b20ab0276!8m2!3d8.9837879!4d38.7963064!16zL20vMDQ3OTc4?entry=ttu&amp;g_ep=EgoyMDI0MTEyNC4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>8.983793199999999</v>
+      </c>
+      <c r="G33" t="n">
+        <v>38.7937261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>45638</v>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>공항</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>인천국제공항 1터미널</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EC%9D%B8%EC%B2%9C%EA%B3%B5%ED%95%AD+1%ED%84%B0%EB%AF%B8%EB%84%90/@37.4506275,126.4831542,13z/data=!4m7!3m6!1s0x357b9ba15b88f4c3:0x38da2c5522e843e5!8m2!3d37.44748!4d126.452478!15sCibsnbjsspzqta3soJzqs7Xtla0g7KCcMeyXrOqwne2EsOuvuOuEkCIDiAEBWi0iK-yduOyynCDqta3soJwg6rO17ZWtIOygnCAxIOyXrOqwnSDthLDrr7jrhJCSARByYWlsd2F5X3NlcnZpY2VzmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJxTlV4UE5WRlJFQUXgAQD6AQQIABAi!16s%2Fg%2F11v0vwjc__?coh=225992&amp;entry=tts&amp;g_ep=EgoyMDI0MTEyNC4xIPu8ASoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>37.4506275</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G34" t="n">
         <v>126.4831542</v>
       </c>
     </row>
